--- a/data/washington/da_sampling/raw/Files for Chris Free/Shellview_CloseLog_2014_2020.xls.xlsx
+++ b/data/washington/da_sampling/raw/Files for Chris Free/Shellview_CloseLog_2014_2020.xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\doh\user\fr\TSB2303\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/washington/da_sampling/raw/Files for Chris Free/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B0933E1-F62C-486D-AC99-06371AE5B03C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDD9279-B4F0-1E48-84F9-655C57605DDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StatusChangeEvents" sheetId="1" r:id="rId1"/>
@@ -1675,7 +1675,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2565,30 +2565,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M702"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="35.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>276</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>276</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>530</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>276</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>276</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>276</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>276</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>276</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>276</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>276</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>276</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>276</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>276</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>276</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>14</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>14</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>14</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>14</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>14</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>14</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>14</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>14</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>14</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>14</v>
       </c>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>14</v>
       </c>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>276</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>276</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>276</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>276</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>276</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>276</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>276</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>276</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>14</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>276</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>276</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>276</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>14</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>14</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>14</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>14</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>14</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>14</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>14</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>14</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>14</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>14</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>14</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>14</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>14</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>14</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>276</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>276</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>276</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>276</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>14</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>14</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>14</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>14</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>14</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>14</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>14</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>14</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>276</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>276</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>14</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>14</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>14</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>14</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>14</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>14</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>14</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>14</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>14</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>276</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>276</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>14</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>276</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>276</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>276</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>276</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>14</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>14</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>14</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>14</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>14</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>276</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>14</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>14</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>14</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>14</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>14</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>14</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>276</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>276</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>14</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>14</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>14</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>14</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>14</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>276</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>276</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>276</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>14</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>14</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>14</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>14</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>14</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>14</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>14</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>14</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>14</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>14</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>14</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>14</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>14</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>14</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>14</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>14</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>14</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>14</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>14</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>14</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>14</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>14</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>14</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>14</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>14</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>14</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>14</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>14</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>14</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>14</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>14</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>14</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>14</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>14</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>14</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>14</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>14</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>14</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>14</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>14</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>14</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>14</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>14</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>14</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>14</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>14</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>14</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>14</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>276</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>14</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>14</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>14</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>14</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>14</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>14</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>14</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>14</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>14</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>14</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>14</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>14</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>14</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>14</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>14</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>14</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>14</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>14</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>14</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>14</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>14</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>14</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>276</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>276</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>14</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>14</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>14</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>14</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>14</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>14</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>276</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>276</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>276</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>14</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>14</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>14</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>276</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>14</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>14</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>14</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>14</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>14</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>14</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>14</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>14</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>14</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>14</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>14</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>14</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>276</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" ht="128" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>276</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>276</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>276</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>276</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>276</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>14</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>14</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>14</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>14</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>14</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>14</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="128" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>276</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>276</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>14</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>14</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>276</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>14</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>13</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>14</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>14</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>14</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>14</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>276</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>14</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>276</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>533</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>14</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>533</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>276</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>276</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>533</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>276</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>14</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>14</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>14</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>14</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>14</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>276</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>14</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>13</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
         <v>13</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>14</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>14</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>14</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>14</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>14</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>14</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>14</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
         <v>14</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>14</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
         <v>14</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
         <v>14</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>14</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>14</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>14</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>14</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
         <v>14</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
         <v>14</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
         <v>14</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
         <v>14</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
         <v>14</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
         <v>14</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
         <v>14</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>14</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
         <v>14</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>13</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>13</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
         <v>14</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
         <v>14</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>14</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
         <v>14</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
         <v>14</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
         <v>14</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
         <v>276</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
         <v>276</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
         <v>14</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
         <v>14</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
         <v>14</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
         <v>14</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
         <v>14</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
         <v>14</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
         <v>14</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
         <v>14</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
         <v>14</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
         <v>14</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
         <v>14</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
         <v>14</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
         <v>14</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
         <v>276</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" ht="160" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
         <v>276</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
         <v>14</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
         <v>14</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
         <v>276</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
         <v>276</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" ht="128" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
         <v>276</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
         <v>276</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
         <v>276</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
         <v>276</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
         <v>276</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
         <v>276</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>276</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
         <v>14</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
         <v>14</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
         <v>14</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
         <v>14</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
         <v>533</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
         <v>533</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
         <v>14</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
         <v>14</v>
       </c>
@@ -13444,7 +13444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
         <v>276</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
         <v>276</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
         <v>533</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
         <v>276</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
         <v>14</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
         <v>14</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
         <v>276</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
         <v>276</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
         <v>14</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
         <v>14</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
         <v>276</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
         <v>14</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
         <v>14</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
         <v>14</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
         <v>14</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
         <v>14</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
         <v>14</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
         <v>276</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
         <v>276</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
         <v>276</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
         <v>276</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
         <v>14</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
         <v>14</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
         <v>14</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
         <v>14</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
         <v>14</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
         <v>276</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
         <v>276</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
         <v>276</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
         <v>14</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
         <v>14</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
         <v>13</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
         <v>276</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
         <v>14</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>14</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
         <v>276</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A371" s="5" t="s">
         <v>276</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
         <v>276</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
         <v>276</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
         <v>14</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A375" s="5" t="s">
         <v>276</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
         <v>276</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
         <v>14</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
         <v>14</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
         <v>14</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
         <v>14</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
         <v>276</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
         <v>276</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
         <v>14</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
         <v>14</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
         <v>276</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
         <v>276</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="5" t="s">
         <v>14</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
         <v>14</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
         <v>14</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
         <v>14</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
         <v>14</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
         <v>276</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
         <v>14</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
         <v>276</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
         <v>276</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="396" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
         <v>276</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
         <v>276</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="5" t="s">
         <v>14</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A399" s="5" t="s">
         <v>276</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="400" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
         <v>276</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
         <v>276</v>
       </c>
@@ -15613,7 +15613,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
         <v>276</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
         <v>14</v>
       </c>
@@ -15677,7 +15677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="5" t="s">
         <v>14</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
         <v>14</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
         <v>533</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
         <v>276</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
         <v>14</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
         <v>14</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
         <v>14</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
         <v>14</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
         <v>14</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>14</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
         <v>14</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
         <v>13</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
         <v>14</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
         <v>533</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
         <v>14</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="5" t="s">
         <v>14</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="420" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
         <v>276</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="421" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
         <v>276</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
         <v>14</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
         <v>14</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
         <v>14</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
         <v>14</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
         <v>14</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
         <v>14</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
         <v>14</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="429" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
         <v>276</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="430" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
         <v>276</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
         <v>14</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
         <v>14</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
         <v>14</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
         <v>14</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
         <v>14</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
         <v>14</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>14</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
         <v>14</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
         <v>14</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
         <v>14</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
         <v>14</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
         <v>14</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
         <v>14</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
         <v>14</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
         <v>14</v>
       </c>
@@ -16991,7 +16991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A446" s="5" t="s">
         <v>276</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="447" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
         <v>276</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="448" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A448" s="5" t="s">
         <v>276</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A449" s="5" t="s">
         <v>276</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="450" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
         <v>276</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="451" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
         <v>276</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="452" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
         <v>276</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="453" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
         <v>276</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="454" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
         <v>276</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
         <v>14</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
         <v>14</v>
       </c>
@@ -17366,7 +17366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
         <v>14</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
         <v>14</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
         <v>14</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
         <v>14</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
         <v>14</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="5" t="s">
         <v>14</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
         <v>14</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
         <v>14</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="5" t="s">
         <v>14</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="5" t="s">
         <v>14</v>
       </c>
@@ -17676,7 +17676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="467" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A467" s="5" t="s">
         <v>276</v>
       </c>
@@ -17711,7 +17711,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
         <v>14</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="5" t="s">
         <v>14</v>
       </c>
@@ -17773,7 +17773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="5" t="s">
         <v>14</v>
       </c>
@@ -17804,7 +17804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="5" t="s">
         <v>13</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="5" t="s">
         <v>14</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A473" s="5" t="s">
         <v>276</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="5" t="s">
         <v>13</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A475" s="5" t="s">
         <v>276</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="5" t="s">
         <v>14</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="5" t="s">
         <v>14</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="5" t="s">
         <v>14</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
         <v>14</v>
       </c>
@@ -18087,7 +18087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="5" t="s">
         <v>14</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="5" t="s">
         <v>14</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A482" s="5" t="s">
         <v>276</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
         <v>14</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="5" t="s">
         <v>14</v>
       </c>
@@ -18246,7 +18246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
         <v>14</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="5" t="s">
         <v>14</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
         <v>14</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
         <v>14</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="5" t="s">
         <v>14</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
         <v>14</v>
       </c>
@@ -18432,7 +18432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="5" t="s">
         <v>14</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="5" t="s">
         <v>14</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="5" t="s">
         <v>14</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="5" t="s">
         <v>14</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
         <v>14</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="5" t="s">
         <v>14</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="5" t="s">
         <v>14</v>
       </c>
@@ -18649,7 +18649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="5" t="s">
         <v>14</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="5" t="s">
         <v>14</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="5" t="s">
         <v>14</v>
       </c>
@@ -18742,7 +18742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="5" t="s">
         <v>14</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="5" t="s">
         <v>14</v>
       </c>
@@ -18804,7 +18804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
         <v>14</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="5" t="s">
         <v>14</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="505" spans="1:13" ht="360" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" ht="365" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
         <v>276</v>
       </c>
@@ -18899,7 +18899,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="5" t="s">
         <v>14</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="5" t="s">
         <v>14</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A508" s="5" t="s">
         <v>14</v>
       </c>
@@ -18992,7 +18992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
         <v>14</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="5" t="s">
         <v>14</v>
       </c>
@@ -19054,7 +19054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="5" t="s">
         <v>14</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="5" t="s">
         <v>13</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="5" t="s">
         <v>533</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="5" t="s">
         <v>533</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="5" t="s">
         <v>533</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="5" t="s">
         <v>533</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="5" t="s">
         <v>533</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="5" t="s">
         <v>14</v>
       </c>
@@ -19302,7 +19302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="5" t="s">
         <v>14</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="5" t="s">
         <v>14</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
         <v>14</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="5" t="s">
         <v>14</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="523" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A523" s="5" t="s">
         <v>276</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="524" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A524" s="5" t="s">
         <v>14</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="525" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A525" s="5" t="s">
         <v>276</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="526" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A526" s="5" t="s">
         <v>276</v>
       </c>
@@ -19558,7 +19558,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="5" t="s">
         <v>14</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="5" t="s">
         <v>533</v>
       </c>
@@ -19620,7 +19620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="529" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A529" s="5" t="s">
         <v>276</v>
       </c>
@@ -19653,7 +19653,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A530" s="5" t="s">
         <v>14</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="5" t="s">
         <v>14</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="5" t="s">
         <v>14</v>
       </c>
@@ -19746,7 +19746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" s="5" t="s">
         <v>14</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A534" s="5" t="s">
         <v>14</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" s="5" t="s">
         <v>14</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A536" s="5" t="s">
         <v>14</v>
       </c>
@@ -19862,7 +19862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" s="5" t="s">
         <v>14</v>
       </c>
@@ -19891,7 +19891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A538" s="5" t="s">
         <v>276</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="5" t="s">
         <v>14</v>
       </c>
@@ -19955,7 +19955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" s="5" t="s">
         <v>14</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" s="5" t="s">
         <v>14</v>
       </c>
@@ -20015,7 +20015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="5" t="s">
         <v>14</v>
       </c>
@@ -20048,7 +20048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
         <v>14</v>
       </c>
@@ -20081,7 +20081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="5" t="s">
         <v>14</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="5" t="s">
         <v>14</v>
       </c>
@@ -20143,7 +20143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="5" t="s">
         <v>14</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="5" t="s">
         <v>14</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="5" t="s">
         <v>14</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" s="5" t="s">
         <v>14</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="5" t="s">
         <v>14</v>
       </c>
@@ -20298,7 +20298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="5" t="s">
         <v>14</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" s="5" t="s">
         <v>13</v>
       </c>
@@ -20360,7 +20360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="553" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A553" s="5" t="s">
         <v>276</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" s="5" t="s">
         <v>14</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="5" t="s">
         <v>14</v>
       </c>
@@ -20457,7 +20457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="5" t="s">
         <v>14</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
         <v>14</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="5" t="s">
         <v>14</v>
       </c>
@@ -20550,7 +20550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="5" t="s">
         <v>14</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A560" s="5" t="s">
         <v>14</v>
       </c>
@@ -20612,7 +20612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="5" t="s">
         <v>14</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="5" t="s">
         <v>14</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="5" t="s">
         <v>14</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="5" t="s">
         <v>14</v>
       </c>
@@ -20736,7 +20736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A565" s="5" t="s">
         <v>14</v>
       </c>
@@ -20767,7 +20767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="5" t="s">
         <v>14</v>
       </c>
@@ -20798,7 +20798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="5" t="s">
         <v>533</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="568" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A568" s="5" t="s">
         <v>276</v>
       </c>
@@ -20862,7 +20862,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="569" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:13" ht="128" x14ac:dyDescent="0.2">
       <c r="A569" s="5" t="s">
         <v>276</v>
       </c>
@@ -20895,7 +20895,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A570" s="5" t="s">
         <v>14</v>
       </c>
@@ -20926,7 +20926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A571" s="5" t="s">
         <v>14</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="5" t="s">
         <v>14</v>
       </c>
@@ -20988,7 +20988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A573" s="5" t="s">
         <v>14</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A574" s="5" t="s">
         <v>14</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A575" s="5" t="s">
         <v>14</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A576" s="5" t="s">
         <v>533</v>
       </c>
@@ -21112,7 +21112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="577" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A577" s="5" t="s">
         <v>276</v>
       </c>
@@ -21145,7 +21145,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="5" t="s">
         <v>13</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A579" s="5" t="s">
         <v>13</v>
       </c>
@@ -21207,7 +21207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="580" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A580" s="5" t="s">
         <v>276</v>
       </c>
@@ -21242,7 +21242,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="581" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A581" s="5" t="s">
         <v>276</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A582" s="5" t="s">
         <v>14</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="583" spans="1:13" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:13" ht="335" x14ac:dyDescent="0.2">
       <c r="A583" s="5" t="s">
         <v>276</v>
       </c>
@@ -21339,7 +21339,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A584" s="5" t="s">
         <v>14</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A585" s="5" t="s">
         <v>14</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A586" s="5" t="s">
         <v>14</v>
       </c>
@@ -21432,7 +21432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" s="5" t="s">
         <v>14</v>
       </c>
@@ -21463,7 +21463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A588" s="5" t="s">
         <v>14</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A589" s="5" t="s">
         <v>14</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A590" s="5" t="s">
         <v>14</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A591" s="5" t="s">
         <v>14</v>
       </c>
@@ -21587,7 +21587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A592" s="5" t="s">
         <v>14</v>
       </c>
@@ -21618,7 +21618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A593" s="5" t="s">
         <v>14</v>
       </c>
@@ -21649,7 +21649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A594" s="5" t="s">
         <v>14</v>
       </c>
@@ -21680,7 +21680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A595" s="5" t="s">
         <v>14</v>
       </c>
@@ -21711,7 +21711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="596" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A596" s="5" t="s">
         <v>14</v>
       </c>
@@ -21744,7 +21744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="597" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A597" s="5" t="s">
         <v>14</v>
       </c>
@@ -21777,7 +21777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="598" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A598" s="5" t="s">
         <v>14</v>
       </c>
@@ -21810,7 +21810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="599" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A599" s="5" t="s">
         <v>276</v>
       </c>
@@ -21841,7 +21841,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A600" s="5" t="s">
         <v>14</v>
       </c>
@@ -21872,7 +21872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="601" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A601" s="5" t="s">
         <v>14</v>
       </c>
@@ -21903,7 +21903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A602" s="5" t="s">
         <v>14</v>
       </c>
@@ -21934,7 +21934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="603" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A603" s="5" t="s">
         <v>276</v>
       </c>
@@ -21969,7 +21969,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A604" s="5" t="s">
         <v>14</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A605" s="5" t="s">
         <v>14</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A606" s="5" t="s">
         <v>14</v>
       </c>
@@ -22066,7 +22066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="607" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A607" s="5" t="s">
         <v>276</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="608" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A608" s="5" t="s">
         <v>13</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="609" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A609" s="5" t="s">
         <v>276</v>
       </c>
@@ -22165,7 +22165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A610" s="5" t="s">
         <v>14</v>
       </c>
@@ -22196,7 +22196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A611" s="5" t="s">
         <v>14</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A612" s="5" t="s">
         <v>14</v>
       </c>
@@ -22258,7 +22258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A613" s="5" t="s">
         <v>14</v>
       </c>
@@ -22289,7 +22289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A614" s="5" t="s">
         <v>14</v>
       </c>
@@ -22320,7 +22320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A615" s="5" t="s">
         <v>13</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A616" s="5" t="s">
         <v>14</v>
       </c>
@@ -22382,7 +22382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A617" s="5" t="s">
         <v>14</v>
       </c>
@@ -22413,7 +22413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="618" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A618" s="5" t="s">
         <v>533</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A619" s="5" t="s">
         <v>14</v>
       </c>
@@ -22477,7 +22477,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A620" s="5" t="s">
         <v>14</v>
       </c>
@@ -22512,7 +22512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="621" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A621" s="5" t="s">
         <v>276</v>
       </c>
@@ -22547,7 +22547,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A622" s="5" t="s">
         <v>14</v>
       </c>
@@ -22578,7 +22578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A623" s="5" t="s">
         <v>14</v>
       </c>
@@ -22609,7 +22609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A624" s="5" t="s">
         <v>14</v>
       </c>
@@ -22640,7 +22640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A625" s="5" t="s">
         <v>14</v>
       </c>
@@ -22671,7 +22671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A626" s="5" t="s">
         <v>14</v>
       </c>
@@ -22702,7 +22702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A627" s="5" t="s">
         <v>14</v>
       </c>
@@ -22733,7 +22733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A628" s="5" t="s">
         <v>14</v>
       </c>
@@ -22764,7 +22764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="629" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A629" s="5" t="s">
         <v>276</v>
       </c>
@@ -22797,7 +22797,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="630" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A630" s="5" t="s">
         <v>14</v>
       </c>
@@ -22828,7 +22828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="631" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:13" ht="128" x14ac:dyDescent="0.2">
       <c r="A631" s="5" t="s">
         <v>276</v>
       </c>
@@ -22861,7 +22861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="632" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A632" s="5" t="s">
         <v>276</v>
       </c>
@@ -22894,7 +22894,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A633" s="5" t="s">
         <v>14</v>
       </c>
@@ -22925,7 +22925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A634" s="5" t="s">
         <v>14</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A635" s="5" t="s">
         <v>14</v>
       </c>
@@ -22987,7 +22987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A636" s="5" t="s">
         <v>14</v>
       </c>
@@ -23016,7 +23016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A637" s="5" t="s">
         <v>14</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A638" s="5" t="s">
         <v>14</v>
       </c>
@@ -23076,7 +23076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A639" s="5" t="s">
         <v>14</v>
       </c>
@@ -23107,7 +23107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A640" s="5" t="s">
         <v>14</v>
       </c>
@@ -23140,7 +23140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="641" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:13" ht="128" x14ac:dyDescent="0.2">
       <c r="A641" s="5" t="s">
         <v>276</v>
       </c>
@@ -23173,7 +23173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="642" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A642" s="5" t="s">
         <v>276</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="643" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A643" s="5" t="s">
         <v>276</v>
       </c>
@@ -23241,7 +23241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A644" s="5" t="s">
         <v>14</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A645" s="5" t="s">
         <v>14</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A646" s="5" t="s">
         <v>533</v>
       </c>
@@ -23338,7 +23338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A647" s="5" t="s">
         <v>533</v>
       </c>
@@ -23371,7 +23371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A648" s="5" t="s">
         <v>14</v>
       </c>
@@ -23402,7 +23402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="649" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A649" s="5" t="s">
         <v>14</v>
       </c>
@@ -23433,7 +23433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A650" s="5" t="s">
         <v>14</v>
       </c>
@@ -23464,7 +23464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A651" s="5" t="s">
         <v>14</v>
       </c>
@@ -23497,7 +23497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A652" s="5" t="s">
         <v>14</v>
       </c>
@@ -23530,7 +23530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A653" s="5" t="s">
         <v>14</v>
       </c>
@@ -23563,7 +23563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="654" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A654" s="5" t="s">
         <v>14</v>
       </c>
@@ -23596,7 +23596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A655" s="5" t="s">
         <v>533</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="656" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A656" s="5" t="s">
         <v>276</v>
       </c>
@@ -23660,7 +23660,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="657" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A657" s="5" t="s">
         <v>276</v>
       </c>
@@ -23695,7 +23695,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="658" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:13" ht="128" x14ac:dyDescent="0.2">
       <c r="A658" s="5" t="s">
         <v>276</v>
       </c>
@@ -23728,7 +23728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="659" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A659" s="5" t="s">
         <v>14</v>
       </c>
@@ -23761,7 +23761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="660" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A660" s="5" t="s">
         <v>14</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="661" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A661" s="5" t="s">
         <v>276</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="662" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A662" s="5" t="s">
         <v>276</v>
       </c>
@@ -23860,7 +23860,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="663" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A663" s="5" t="s">
         <v>276</v>
       </c>
@@ -23893,7 +23893,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="664" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A664" s="5" t="s">
         <v>276</v>
       </c>
@@ -23926,7 +23926,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="665" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A665" s="5" t="s">
         <v>276</v>
       </c>
@@ -23959,7 +23959,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="666" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A666" s="5" t="s">
         <v>276</v>
       </c>
@@ -23992,7 +23992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A667" s="5" t="s">
         <v>14</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A668" s="5" t="s">
         <v>14</v>
       </c>
@@ -24058,7 +24058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A669" s="5" t="s">
         <v>14</v>
       </c>
@@ -24091,7 +24091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A670" s="5" t="s">
         <v>14</v>
       </c>
@@ -24124,7 +24124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A671" s="5" t="s">
         <v>14</v>
       </c>
@@ -24155,7 +24155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A672" s="5" t="s">
         <v>14</v>
       </c>
@@ -24184,7 +24184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A673" s="5" t="s">
         <v>14</v>
       </c>
@@ -24217,7 +24217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="674" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:13" ht="128" x14ac:dyDescent="0.2">
       <c r="A674" s="5" t="s">
         <v>276</v>
       </c>
@@ -24250,7 +24250,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="675" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A675" s="5" t="s">
         <v>14</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="676" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A676" s="5" t="s">
         <v>276</v>
       </c>
@@ -24316,7 +24316,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="677" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A677" s="5" t="s">
         <v>14</v>
       </c>
@@ -24347,7 +24347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A678" s="5" t="s">
         <v>14</v>
       </c>
@@ -24378,7 +24378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A679" s="5" t="s">
         <v>14</v>
       </c>
@@ -24409,7 +24409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A680" s="5" t="s">
         <v>14</v>
       </c>
@@ -24440,7 +24440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="681" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A681" s="5" t="s">
         <v>14</v>
       </c>
@@ -24473,7 +24473,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="682" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A682" s="5" t="s">
         <v>14</v>
       </c>
@@ -24506,7 +24506,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="683" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A683" s="5" t="s">
         <v>14</v>
       </c>
@@ -24539,7 +24539,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A684" s="5" t="s">
         <v>14</v>
       </c>
@@ -24570,7 +24570,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="685" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A685" s="5" t="s">
         <v>14</v>
       </c>
@@ -24601,7 +24601,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="686" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A686" s="5" t="s">
         <v>14</v>
       </c>
@@ -24632,7 +24632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="687" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A687" s="5" t="s">
         <v>14</v>
       </c>
@@ -24663,7 +24663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A688" s="5" t="s">
         <v>14</v>
       </c>
@@ -24694,7 +24694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A689" s="5" t="s">
         <v>14</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A690" s="5" t="s">
         <v>14</v>
       </c>
@@ -24756,7 +24756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="691" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A691" s="5" t="s">
         <v>14</v>
       </c>
@@ -24787,7 +24787,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A692" s="5" t="s">
         <v>14</v>
       </c>
@@ -24818,7 +24818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A693" s="5" t="s">
         <v>14</v>
       </c>
@@ -24849,7 +24849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A694" s="5" t="s">
         <v>14</v>
       </c>
@@ -24880,7 +24880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A695" s="5" t="s">
         <v>14</v>
       </c>
@@ -24911,7 +24911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A696" s="5" t="s">
         <v>14</v>
       </c>
@@ -24942,7 +24942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="697" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A697" s="5" t="s">
         <v>14</v>
       </c>
@@ -24973,7 +24973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="698" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A698" s="5" t="s">
         <v>276</v>
       </c>
@@ -25008,7 +25008,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="699" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A699" s="5" t="s">
         <v>276</v>
       </c>
@@ -25043,7 +25043,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A700" s="5" t="s">
         <v>533</v>
       </c>
@@ -25072,7 +25072,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="701" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A701" s="5" t="s">
         <v>14</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="702" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A702" s="5" t="s">
         <v>14</v>
       </c>
@@ -25135,7 +25135,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M702">
+  <sortState ref="A2:M702">
     <sortCondition ref="C2:C702"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
